--- a/full_data.xlsx
+++ b/full_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,6 +2250,16 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/full_data.xlsx
+++ b/full_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2260,6 +2260,16 @@
         </is>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/full_data.xlsx
+++ b/full_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2270,6 +2270,16 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/full_data.xlsx
+++ b/full_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2280,6 +2280,16 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
